--- a/biology/Histoire de la zoologie et de la botanique/Deirdré_Anne_Snijman/Deirdré_Anne_Snijman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Deirdré_Anne_Snijman/Deirdré_Anne_Snijman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deirdr%C3%A9_Anne_Snijman</t>
+          <t>Deirdré_Anne_Snijman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deirdré Anne Snijman, Dierdre Snijman ou Dee Snijman  est une botaniste sud-africaine née le 27 juin 1949 à Brakpan[1], une ville proche de Johannesburg.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deirdré Anne Snijman, Dierdre Snijman ou Dee Snijman  est une botaniste sud-africaine née le 27 juin 1949 à Brakpan, une ville proche de Johannesburg.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deirdr%C3%A9_Anne_Snijman</t>
+          <t>Deirdré_Anne_Snijman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle suit des études de botanique et de mathématique à l'université du Natal, et obtient sa maîtrise en 1973. En 1974, elle est recrutée par le jardin botanique national Kirstenbosch au Cap, et intègre l'équipe de recherche du Compton Herbarium[2],[1] ; elle y entame des recherches sur le genre Haemanthus, qui seront publiées en 1984.
-Snijman consacre ensuite ses recherches aux genres Hessea, Strumaria[3] et à d'autres genres de la famille des Amaryllidaceae, pour sa thèse de doctorat en botanique sous la direction de Peter Linder à l'Université du Cap, thèse qu'elle obtient en 1992 sur la systématique des Amaryllideae (Amaryllidaceae)[1]. En compagnie de la botaniste galloise Pauline Perry, de son mari le photographe Colin Paterson-Jones ou d'autres botanistes, elle effectue pendant de nombreuses années un travail de collecte botanique dans plusieurs régions d'Afrique australe[1],[4].
-En 1997 D.-A. Sinjman reçoit la Médaille Herbert (Herbert Medal) attribuée par l'International Bulb Society pour ses contributions à la connaissance des plantes à bulbe sud-africaines[6].
-Elle décrit en 1998 Amaryllis paradisicola dans un article de la revue Bothalia[7] ; il s'agit de l'une des deux espèces du genre Amaryllis en Afrique du Sud, l'autre étant Amaryllis belladonna.
-Elle prend en 2014 sa retraite officielle du Compton Herbarium , tout en continuant des recherches, notamment sur les Hypoxidaceae[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle suit des études de botanique et de mathématique à l'université du Natal, et obtient sa maîtrise en 1973. En 1974, elle est recrutée par le jardin botanique national Kirstenbosch au Cap, et intègre l'équipe de recherche du Compton Herbarium, ; elle y entame des recherches sur le genre Haemanthus, qui seront publiées en 1984.
+Snijman consacre ensuite ses recherches aux genres Hessea, Strumaria et à d'autres genres de la famille des Amaryllidaceae, pour sa thèse de doctorat en botanique sous la direction de Peter Linder à l'Université du Cap, thèse qu'elle obtient en 1992 sur la systématique des Amaryllideae (Amaryllidaceae). En compagnie de la botaniste galloise Pauline Perry, de son mari le photographe Colin Paterson-Jones ou d'autres botanistes, elle effectue pendant de nombreuses années un travail de collecte botanique dans plusieurs régions d'Afrique australe,.
+En 1997 D.-A. Sinjman reçoit la Médaille Herbert (Herbert Medal) attribuée par l'International Bulb Society pour ses contributions à la connaissance des plantes à bulbe sud-africaines.
+Elle décrit en 1998 Amaryllis paradisicola dans un article de la revue Bothalia ; il s'agit de l'une des deux espèces du genre Amaryllis en Afrique du Sud, l'autre étant Amaryllis belladonna.
+Elle prend en 2014 sa retraite officielle du Compton Herbarium , tout en continuant des recherches, notamment sur les Hypoxidaceae.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deirdr%C3%A9_Anne_Snijman</t>
+          <t>Deirdré_Anne_Snijman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux plantes ont été nommées en son honneur : une espèce d'Apiaceae (Chamarea snijmaniae) par le botaniste anglais Brian Burtt en 1991[9],[10], et en 2008, une Polygonaceae (Polygonum snijmaniae) par le botaniste espagnol Santiago Ortiz Nuñez[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux plantes ont été nommées en son honneur : une espèce d'Apiaceae (Chamarea snijmaniae) par le botaniste anglais Brian Burtt en 1991 et en 2008, une Polygonaceae (Polygonum snijmaniae) par le botaniste espagnol Santiago Ortiz Nuñez.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Deirdr%C3%A9_Anne_Snijman</t>
+          <t>Deirdré_Anne_Snijman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) A revision of the genus Haemanthus L. (Amaryllidaceae), Kirstenbosch, National Botanic Gardens of South Africa, 1984, 139 p. (collection : Journal of South African botany ; 12)  (ISBN 0-620-07339-X).
 (en) « Kamiesbergia, À new monotypic genus of the Amaryllideae-Strumariinae (Amaryllidaceae) from the north-western Cape », Bothalia, 1991, n° 21, p. 125-128.
